--- a/example.xlsx
+++ b/example.xlsx
@@ -76,7 +76,7 @@
     <t>altContactPhone</t>
   </si>
   <si>
-    <t>idNumber</t>
+    <t>IDNumber</t>
   </si>
   <si>
     <t>address</t>
@@ -220,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -229,6 +229,9 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -522,7 +525,7 @@
       <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
       <c r="W1" s="2" t="s">
@@ -563,106 +566,106 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>201.0</v>
       </c>
-      <c r="B2" s="4" t="b">
+      <c r="B2" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="b">
+      <c r="C2" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>9.8765678E7</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5">
         <v>4.567890987E9</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="5">
         <v>0.0</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="Q2" s="5">
         <v>18.0</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="4">
+      <c r="U2" s="5">
         <v>3.456787654E9</v>
       </c>
-      <c r="V2" s="4">
+      <c r="V2" s="5">
         <v>2.3456787E7</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AA2" s="4" t="b">
+      <c r="AA2" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AB2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AC2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AD2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AE2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AF2" s="4" t="b">
+      <c r="AF2" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="AG2" s="4" t="b">
+      <c r="AG2" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="AH2" s="4" t="b">
+      <c r="AH2" s="5" t="b">
         <v>0</v>
       </c>
     </row>
